--- a/docs/1.Envisioning/Аналіз проектних ризиків.xlsx
+++ b/docs/1.Envisioning/Аналіз проектних ризиків.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BLIZZARD\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3872611D-03E7-4BD2-A6F8-D0CC7CF949A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9275A92-EAF1-4BCD-84D2-B79D6454BCFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -227,10 +227,6 @@
 GitHub (на розмір файлів, кількість запитів тощо)</t>
   </si>
   <si>
-    <t>Неможливість завантажити
-великі файли або робити push, обмеження функціоналу GitHub</t>
-  </si>
-  <si>
     <t>Повідомлення від GitHub
 про перевищення ліміту, помилка під час пушу</t>
   </si>
@@ -293,10 +289,6 @@
 нараду для уточнення ролей і завдань, призначити відповідальних за кожний модуль</t>
   </si>
   <si>
-    <t>Одночасні зміни
-одного файлу різними людьми, дублювання функціоналу</t>
-  </si>
-  <si>
     <t>Регулярні зустрічі
 (онлайн/офлайн), чіткий розподіл завдань</t>
   </si>
@@ -325,10 +317,6 @@
 з гілками (branching) – хаотичне створення та видалення гілок</t>
   </si>
   <si>
-    <t>Труднощі у
-відстеженні функціоналу, складно зрозуміти, яка гілка актуальна, конфлікти під час злиття</t>
-  </si>
-  <si>
     <t>Здійснити рефакторинг
 структури гілок, об’єднати дублікати, закрити зайві гілки, провести ретроспективу</t>
   </si>
@@ -379,26 +367,6 @@
 задачі з урахуванням пріоритету, додати щоденні синхронізації</t>
   </si>
   <si>
-    <t>Відсутність
-тестових сценаріїв</t>
-  </si>
-  <si>
-    <t>Зростає ризик
-появи прихованих помилок, складно відстежити, де саме в коді з’явилася регресія</t>
-  </si>
-  <si>
-    <t>Після чергового
-оновлення раптово перестають працювати раніше реалізовані функції</t>
-  </si>
-  <si>
-    <t>Запровадити
-базові unit-тести</t>
-  </si>
-  <si>
-    <t>Терміново
-написати ключові тести, провести ручну перевірку основних сценаріїв, залучити Test або виділити час команди на тестування</t>
-  </si>
-  <si>
     <t>Неправильна оцінка
 складності завдань</t>
   </si>
@@ -495,6 +463,34 @@
   <si>
     <t>Скарги
 учасників на невідповідність документації або часті помилки в роботі інструментів</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Погано спланована архітектура та хибні технічні рішення при розробці
+</t>
+  </si>
+  <si>
+    <t>Часті баги та збої, труднощі з підтримкою, затримки релізів, можливе переписування продукту</t>
+  </si>
+  <si>
+    <t>Архітектурний аудит, тимчасова зупинка розробки для рефакторингу</t>
+  </si>
+  <si>
+    <t>Неможливість додати нові функції без глобальних змін, критичні конфлікти в логіці</t>
+  </si>
+  <si>
+    <t>Постійні  виправлення, скарги на складний код, конфлікти в логіці</t>
+  </si>
+  <si>
+    <t>Одночасні зміни
+одного файлу різними людьми, дублювання рішення</t>
+  </si>
+  <si>
+    <t>Труднощі у
+відстеженні змін, складно зрозуміти, яка гілка актуальна, конфлікти під час злиття</t>
+  </si>
+  <si>
+    <t>Неможливість завантажити
+великі файли або робити push, обмеження використання GitHub</t>
   </si>
 </sst>
 </file>
@@ -509,31 +505,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -543,15 +519,35 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="16"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -566,7 +562,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -598,37 +600,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -851,713 +847,712 @@
   </sheetPr>
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.44140625" customWidth="1"/>
-    <col min="2" max="2" width="17.5546875" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" customWidth="1"/>
+    <col min="2" max="2" width="22.21875" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
     <col min="4" max="4" width="11.5546875" customWidth="1"/>
     <col min="5" max="5" width="11.44140625" customWidth="1"/>
     <col min="6" max="6" width="13.44140625" customWidth="1"/>
-    <col min="7" max="7" width="21.33203125" customWidth="1"/>
-    <col min="8" max="8" width="18.33203125" customWidth="1"/>
-    <col min="9" max="9" width="16.44140625" customWidth="1"/>
-    <col min="10" max="10" width="18.88671875" customWidth="1"/>
+    <col min="7" max="7" width="27.33203125" customWidth="1"/>
+    <col min="8" max="9" width="21.21875" customWidth="1"/>
+    <col min="10" max="10" width="27.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="105.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+    <row r="2" spans="1:10" ht="231" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>15</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="E2" s="5">
+        <v>4</v>
+      </c>
+      <c r="F2" s="8">
+        <f>D2*E2</f>
+        <v>2.8</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="294" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>14</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E3" s="5">
+        <v>4</v>
+      </c>
+      <c r="F3" s="8">
+        <f>D3*E3</f>
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="6">
+      <c r="G3" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="189" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="5">
         <v>0.4</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E4" s="5">
         <v>4</v>
       </c>
-      <c r="F2" s="11">
-        <f>D2*E2</f>
+      <c r="F4" s="8">
+        <f>D4*E4</f>
         <v>1.6</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="6" t="s">
+      <c r="G4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="189" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="5">
+        <v>3</v>
+      </c>
+      <c r="F5" s="8">
+        <f>D5*E5</f>
+        <v>1.5</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="118.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
-        <v>15</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D3" s="6">
+    <row r="6" spans="1:10" ht="231" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>16</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="5">
         <v>0.4</v>
       </c>
-      <c r="E3" s="6">
-        <v>4</v>
-      </c>
-      <c r="F3" s="11">
-        <f>D3*E3</f>
-        <v>1.6</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="105.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>4</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="E4" s="6">
+      <c r="E6" s="5">
         <v>3</v>
       </c>
-      <c r="F4" s="11">
-        <f>D4*E4</f>
-        <v>1.2000000000000002</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="92.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <v>10</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="E5" s="6">
-        <v>3</v>
-      </c>
-      <c r="F5" s="11">
-        <f>D5*E5</f>
-        <v>1.2000000000000002</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="105.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>12</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="E6" s="6">
-        <v>3</v>
-      </c>
-      <c r="F6" s="11">
+      <c r="F6" s="8">
         <f>D6*E6</f>
         <v>1.2000000000000002</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="J6" s="6" t="s">
+      <c r="G6" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="231" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="E7" s="5">
+        <v>5</v>
+      </c>
+      <c r="F7" s="5">
+        <f>D7*E7</f>
+        <v>1</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="336" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>1</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="E8" s="5">
+        <v>3</v>
+      </c>
+      <c r="F8" s="5">
+        <f>D8*E8</f>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="252" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>9</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="E9" s="5">
+        <v>3</v>
+      </c>
+      <c r="F9" s="5">
+        <f>D9*E9</f>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="189" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>12</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="E10" s="5">
+        <v>4</v>
+      </c>
+      <c r="F10" s="9">
+        <f>D10*E10</f>
+        <v>0.8</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J10" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="105.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>14</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D7" s="6">
+    <row r="11" spans="1:10" ht="231" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>17</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="5">
         <v>0.4</v>
       </c>
-      <c r="E7" s="6">
-        <v>3</v>
-      </c>
-      <c r="F7" s="6">
-        <f>D7*E7</f>
-        <v>1.2000000000000002</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="132" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>16</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C8" s="5" t="s">
+      <c r="E11" s="5">
+        <v>2</v>
+      </c>
+      <c r="F11" s="5">
+        <f>D11*E11</f>
+        <v>0.8</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="189" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>18</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D8" s="6">
+      <c r="C12" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" s="5">
         <v>0.4</v>
       </c>
-      <c r="E8" s="6">
-        <v>3</v>
-      </c>
-      <c r="F8" s="6">
-        <f>D8*E8</f>
-        <v>1.2000000000000002</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="92.4" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>6</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="E9" s="6">
-        <v>5</v>
-      </c>
-      <c r="F9" s="6">
-        <f>D9*E9</f>
-        <v>1</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="105.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>1</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="E10" s="6">
-        <v>3</v>
-      </c>
-      <c r="F10" s="6">
-        <f>D10*E10</f>
-        <v>0.89999999999999991</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
-        <v>9</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="E11" s="6">
-        <v>3</v>
-      </c>
-      <c r="F11" s="6">
-        <f>D11*E11</f>
-        <v>0.89999999999999991</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="105.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
-        <v>17</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D12" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <v>2</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="5">
         <f>D12*E12</f>
         <v>0.8</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I12" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="H12" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="J12" s="6" t="s">
+      <c r="J12" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="92.4" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
-        <v>18</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D13" s="6">
+    <row r="13" spans="1:10" ht="168" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>20</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" s="5">
         <v>0.4</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <v>2</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="5">
         <f>D13*E13</f>
         <v>0.8</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="I13" s="5" t="s">
+      <c r="G13" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="J13" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="92.4" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
-        <v>20</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="D14" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="E14" s="6">
+      <c r="H13" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="231" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
         <v>2</v>
       </c>
-      <c r="F14" s="6">
+      <c r="B14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="E14" s="5">
+        <v>3</v>
+      </c>
+      <c r="F14" s="9">
         <f>D14*E14</f>
-        <v>0.8</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="105.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="189" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
         <v>5</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="5">
         <v>0.2</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <v>3</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="5">
         <f>D15*E15</f>
         <v>0.60000000000000009</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I15" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="J15" s="6" t="s">
+      <c r="J15" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="92.4" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+    <row r="16" spans="1:10" ht="210" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
         <v>11</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" s="6">
+      <c r="B16" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="5">
         <v>0.2</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="5">
         <v>3</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="5">
         <f>D16*E16</f>
         <v>0.60000000000000009</v>
       </c>
-      <c r="G16" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="H16" s="5" t="s">
+      <c r="G16" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="I16" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="J16" s="6" t="s">
+      <c r="H16" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J16" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="66" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+    <row r="17" spans="1:10" ht="168" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
         <v>3</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="5">
         <v>0.3</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="5">
         <v>2</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="5">
         <f>D17*E17</f>
         <v>0.6</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I17" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="J17" s="6" t="s">
+      <c r="J17" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="118.8" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
+    <row r="18" spans="1:10" ht="210" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
         <v>13</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D18" s="6">
+      <c r="B18" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="5">
         <v>0.1</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="5">
         <v>5</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="5">
         <f>D18*E18</f>
         <v>0.5</v>
       </c>
-      <c r="G18" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="J18" s="6" t="s">
+      <c r="G18" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="J18" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="118.8" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
+    <row r="19" spans="1:10" ht="231" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
         <v>19</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D19" s="6">
+      <c r="B19" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D19" s="5">
         <v>0.1</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="5">
         <v>5</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="5">
         <f>D19*E19</f>
         <v>0.5</v>
       </c>
-      <c r="G19" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="J19" s="6" t="s">
+      <c r="G19" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J19" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
+    <row r="20" spans="1:10" ht="168" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
         <v>8</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="6">
+      <c r="D20" s="5">
         <v>0.1</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="5">
         <v>4</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="5">
         <f>D20*E20</f>
         <v>0.4</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H20" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="H20" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="J20" s="6" t="s">
+      <c r="I20" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J20" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="92.4" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
+    <row r="21" spans="1:10" ht="168" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
         <v>7</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="6">
+      <c r="C21" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D21" s="5">
         <v>0.1</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="5">
         <v>2</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="5">
         <f>D21*E21</f>
         <v>0.2</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H21" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H21" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="J21" s="6" t="s">
+      <c r="I21" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J21" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1567,25 +1562,19 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J26">
-    <sortCondition descending="1" ref="F1:F26"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J21">
+    <sortCondition descending="1" ref="F2:F21"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="1339" yWindow="543" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="1339" yWindow="543" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Оберіть зі спику члена команди" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>Люди!$A$1:$A$11</xm:f>
           </x14:formula1>
-          <xm:sqref>J3:J21</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Оберіть зі спику члена команди" xr:uid="{31149EF2-196A-4B57-B9F6-DBEF8C3E0E0E}">
-          <x14:formula1>
-            <xm:f>Люди!$A$1:$A$11</xm:f>
-          </x14:formula1>
-          <xm:sqref>J2</xm:sqref>
+          <xm:sqref>J2:J21</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1610,57 +1599,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
     </row>
